--- a/DCAT-AP-NL-Profile.xlsx
+++ b/DCAT-AP-NL-Profile.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcobrattinga/GITREPO/DCAT-AP-NL/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5687DFD5-0E00-7149-834A-50C9442B1019}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="0" windowWidth="35560" windowHeight="20040" tabRatio="784" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="784" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="6" r:id="rId1"/>
@@ -26,7 +32,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">Waarden!$B$1:$H$243</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">Waarden!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hans Overbeek</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -72,13 +78,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hans Overbeek</author>
     <author>Brattinga, Marco</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F80" authorId="1">
+    <comment ref="F80" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H80" authorId="1">
+    <comment ref="H80" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -170,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I80" authorId="1">
+    <comment ref="I80" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J80" authorId="1">
+    <comment ref="J80" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -236,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B91" authorId="1">
+    <comment ref="B91" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -274,12 +280,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hans Overbeek</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="1599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="1617">
   <si>
     <t>Agent</t>
   </si>
@@ -6261,11 +6267,65 @@
       <t xml:space="preserve"> Is het complexe type overheid:Regeling niet vrij overbodig? Is een URI opgesteld via de instructies van http://koop.overheid.nl/producten/bwb/verwijzen niet voldoende? De enige informatie die hierbij verloren zou gaan is overheid:linktekst. Ik stel voor om voor overheid:Grondslag gebruik te maken van xsd:anyURI, of een URI van domeinen binnen een whitelist ( van bv wetten.overheid.nl en linkeddata.overheid.nl). </t>
     </r>
   </si>
+  <si>
+    <t>Zie https://w3c.github.io/dxwg/dcat/#Class:Distribution en https://w3c.github.io/dxwg/dcat/#Property:resource_landing_page, het is in DCAT 1.1 een stuk duidelijker geworden.</t>
+  </si>
+  <si>
+    <t>Uitwisselgegeven, dus dat het een dct:LicenseDocument is. Zie bv: http://bp4mc2.org/profiles/#LicenseDocument</t>
+  </si>
+  <si>
+    <t>Zie ook issue 43. En http://bp4mc2.org/profiles/#adms-toepassingsprofiel-voor-productbeschrijvingen voor een voorbeeld</t>
+  </si>
+  <si>
+    <t>Ik zou verwachten een uitwisselgegeven (het is toch overigen dct:rights?), met als class dct:RightsStatement, zie http://bp4mc2.org/profiles/#RightsStatement</t>
+  </si>
+  <si>
+    <t>Het lijkt mij wenselijk om dit onderscheid te maken, en we kunnen ook in de waardelijst de link leggen tussen de twee. Zie ook http://bp4mc2.org/profiles/#prov-toepassingsprofiel-voor-provenance-informatie voor een mogelijke uitwerking: hierin is foaf:Agent "gewoon" een organisatie die benoemd is in de data, en org:Organization een benoemde organisatie (inclusief org:identifier, wat dus een Nederlands OID kan zijn.</t>
+  </si>
+  <si>
+    <t>Reactie op de reactie op de reactie</t>
+  </si>
+  <si>
+    <t>Lijkt me prima uitgangspunt</t>
+  </si>
+  <si>
+    <t>Overnemen GeoDCAT lijkt mij</t>
+  </si>
+  <si>
+    <t>Zie issue 15: overnemen van de mogelijkheid, maar zonder de verplichting van Inspire</t>
+  </si>
+  <si>
+    <t>Dubbel met 41, oplossing die daar staat implementeren als oplossing voor dit issue</t>
+  </si>
+  <si>
+    <t>Feitelijk zijn dit twee issues: (a) welke property gebruiken; (b) waardelijst. Voor (b) is in eerdere issues al gesproken over een oplossing; voor (a) zou ik aansluiten bij GeoDCAT en DCAT-AP-EU</t>
+  </si>
+  <si>
+    <t>Zie ook issue 7. Voorbeeld van een mogelijke oplossing: http://bp4mc2.org/profiles/#prov-toepassingsprofiel-voor-provenance-informatie</t>
+  </si>
+  <si>
+    <t>Eens. Liefst voorkomen van het gebruik van het overheid: namespace, maar proberen te mappen op bestaande vocabulaires. Zie ook GeoDCAT waar ze vrij uitgebreid zijn</t>
+  </si>
+  <si>
+    <t>Zie ook GeoDCAT, die hebben een zeer uitgebreide lijst</t>
+  </si>
+  <si>
+    <t>Als we voor dcat:themeTaxonomy een lijstje toestaan, dan zal het goed gaan (aangezien de waarden van dcat:theme uit de lijst moeten komen die wordt bepaald door dcat:themeTaxonomy)</t>
+  </si>
+  <si>
+    <t>Dus: waardelijst als taxonomy opnemen (dus met niveau's) en verbinding maken met de MDR lijst (via skos:broadMatch o.i.d.)?</t>
+  </si>
+  <si>
+    <t>Lijkt me prima. Zie ook issue 33, die behandelt feitelijk hetzelfde</t>
+  </si>
+  <si>
+    <t>De vraag is welke mist. GeoDCAT kent een mapping, mogelijk deze toevoegen als onderdeel van de waardelijst?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -9331,8 +9391,8 @@
     <cellStyle name="Hyperlink" xfId="1221" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1223" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1225" builtinId="8" hidden="1"/>
-    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standaard 2" xfId="1084"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard 2" xfId="1084" xr:uid="{00000000-0005-0000-0000-0000CA040000}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -9711,14 +9771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
@@ -9731,7 +9791,7 @@
     <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>1237</v>
       </c>
@@ -9760,7 +9820,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1244</v>
       </c>
@@ -9771,7 +9831,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1246</v>
       </c>
@@ -9785,7 +9845,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1333</v>
       </c>
@@ -9799,7 +9859,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1332</v>
       </c>
@@ -9813,7 +9873,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1253</v>
       </c>
@@ -9827,7 +9887,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1256</v>
       </c>
@@ -9841,7 +9901,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1260</v>
       </c>
@@ -9855,7 +9915,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1263</v>
       </c>
@@ -9872,7 +9932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1263</v>
       </c>
@@ -9889,7 +9949,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1265</v>
       </c>
@@ -9903,7 +9963,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1265</v>
       </c>
@@ -9917,7 +9977,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1265</v>
       </c>
@@ -9931,7 +9991,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1265</v>
       </c>
@@ -9945,7 +10005,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1265</v>
       </c>
@@ -9959,7 +10019,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1265</v>
       </c>
@@ -9973,7 +10033,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1246</v>
       </c>
@@ -9984,7 +10044,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1246</v>
       </c>
@@ -9995,7 +10055,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1333</v>
       </c>
@@ -10009,7 +10069,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1333</v>
       </c>
@@ -10023,7 +10083,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1333</v>
       </c>
@@ -10037,7 +10097,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1333</v>
       </c>
@@ -10051,7 +10111,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1333</v>
       </c>
@@ -10065,7 +10125,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1333</v>
       </c>
@@ -10079,7 +10139,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1333</v>
       </c>
@@ -10093,7 +10153,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1333</v>
       </c>
@@ -10107,7 +10167,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1333</v>
       </c>
@@ -10121,7 +10181,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1333</v>
       </c>
@@ -10135,7 +10195,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1333</v>
       </c>
@@ -10149,7 +10209,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1333</v>
       </c>
@@ -10160,7 +10220,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1333</v>
       </c>
@@ -10171,7 +10231,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1332</v>
       </c>
@@ -10185,7 +10245,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1332</v>
       </c>
@@ -10199,7 +10259,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1332</v>
       </c>
@@ -10213,7 +10273,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1332</v>
       </c>
@@ -10227,7 +10287,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1332</v>
       </c>
@@ -10241,7 +10301,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1332</v>
       </c>
@@ -10255,7 +10315,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1332</v>
       </c>
@@ -10269,7 +10329,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1332</v>
       </c>
@@ -10283,7 +10343,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1332</v>
       </c>
@@ -10297,7 +10357,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1332</v>
       </c>
@@ -10311,7 +10371,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1332</v>
       </c>
@@ -10322,7 +10382,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1332</v>
       </c>
@@ -10333,7 +10393,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1332</v>
       </c>
@@ -10347,7 +10407,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1332</v>
       </c>
@@ -10361,7 +10421,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1332</v>
       </c>
@@ -10375,7 +10435,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1332</v>
       </c>
@@ -10389,7 +10449,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1332</v>
       </c>
@@ -10403,7 +10463,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1332</v>
       </c>
@@ -10417,7 +10477,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1332</v>
       </c>
@@ -10431,7 +10491,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1332</v>
       </c>
@@ -10445,7 +10505,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1332</v>
       </c>
@@ -10459,7 +10519,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1332</v>
       </c>
@@ -10473,7 +10533,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1332</v>
       </c>
@@ -10484,7 +10544,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1332</v>
       </c>
@@ -10495,7 +10555,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1260</v>
       </c>
@@ -10506,7 +10566,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1260</v>
       </c>
@@ -10520,7 +10580,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1260</v>
       </c>
@@ -10534,7 +10594,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1260</v>
       </c>
@@ -10548,7 +10608,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1260</v>
       </c>
@@ -10562,7 +10622,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1263</v>
       </c>
@@ -10576,7 +10636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1263</v>
       </c>
@@ -10601,20 +10661,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>1321</v>
       </c>
@@ -10622,7 +10682,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10630,7 +10690,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10638,7 +10698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10646,7 +10706,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10665,14 +10725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
@@ -10682,7 +10742,7 @@
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>1237</v>
       </c>
@@ -10705,7 +10765,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="62" t="s">
         <v>1246</v>
       </c>
@@ -10722,7 +10782,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="60"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="62" t="s">
         <v>1246</v>
       </c>
@@ -10741,7 +10801,7 @@
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="62" t="s">
         <v>1246</v>
       </c>
@@ -10758,7 +10818,7 @@
       <c r="F4" s="60"/>
       <c r="G4" s="60"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="62" t="s">
         <v>1246</v>
       </c>
@@ -10775,7 +10835,7 @@
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="62" t="s">
         <v>1333</v>
       </c>
@@ -10792,7 +10852,7 @@
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1333</v>
       </c>
@@ -10809,7 +10869,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1333</v>
       </c>
@@ -10826,7 +10886,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1333</v>
       </c>
@@ -10840,7 +10900,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1333</v>
       </c>
@@ -10857,7 +10917,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1333</v>
       </c>
@@ -10874,7 +10934,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1333</v>
       </c>
@@ -10888,7 +10948,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1333</v>
       </c>
@@ -10902,7 +10962,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1332</v>
       </c>
@@ -10919,7 +10979,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1332</v>
       </c>
@@ -10936,7 +10996,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1332</v>
       </c>
@@ -10953,7 +11013,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1332</v>
       </c>
@@ -10967,7 +11027,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1332</v>
       </c>
@@ -10981,7 +11041,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1332</v>
       </c>
@@ -10995,7 +11055,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1332</v>
       </c>
@@ -11009,7 +11069,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1332</v>
       </c>
@@ -11026,7 +11086,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1332</v>
       </c>
@@ -11040,7 +11100,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1332</v>
       </c>
@@ -11054,7 +11114,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1332</v>
       </c>
@@ -11071,7 +11131,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1332</v>
       </c>
@@ -11085,7 +11145,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1253</v>
       </c>
@@ -11099,7 +11159,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1253</v>
       </c>
@@ -11113,7 +11173,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1256</v>
       </c>
@@ -11127,7 +11187,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1256</v>
       </c>
@@ -11144,7 +11204,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1260</v>
       </c>
@@ -11158,7 +11218,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1260</v>
       </c>
@@ -11172,7 +11232,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1260</v>
       </c>
@@ -11189,7 +11249,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1260</v>
       </c>
@@ -11206,7 +11266,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1260</v>
       </c>
@@ -11223,7 +11283,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1263</v>
       </c>
@@ -11237,7 +11297,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1263</v>
       </c>
@@ -11254,7 +11314,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1263</v>
       </c>
@@ -11271,7 +11331,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1263</v>
       </c>
@@ -11296,21 +11356,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>1247</v>
       </c>
@@ -11321,7 +11381,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1345</v>
       </c>
@@ -11343,8 +11403,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G31"/>
@@ -11356,7 +11416,7 @@
       <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="42" bestFit="1" customWidth="1"/>
@@ -11367,7 +11427,7 @@
     <col min="7" max="7" width="51.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="82" t="s">
         <v>1288</v>
       </c>
@@ -11390,7 +11450,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -11411,7 +11471,7 @@
       </c>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
@@ -11432,7 +11492,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>38</v>
       </c>
@@ -11453,7 +11513,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>37</v>
       </c>
@@ -11474,7 +11534,7 @@
       </c>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>37</v>
       </c>
@@ -11495,7 +11555,7 @@
       </c>
       <c r="G6" s="69"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
         <v>37</v>
       </c>
@@ -11516,7 +11576,7 @@
       </c>
       <c r="G7" s="35"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
         <v>37</v>
       </c>
@@ -11539,7 +11599,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
@@ -11562,7 +11622,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
         <v>37</v>
       </c>
@@ -11583,7 +11643,7 @@
       </c>
       <c r="G10" s="35"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
         <v>37</v>
       </c>
@@ -11604,7 +11664,7 @@
       </c>
       <c r="G11" s="35"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>37</v>
       </c>
@@ -11627,7 +11687,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
         <v>37</v>
       </c>
@@ -11648,7 +11708,7 @@
       </c>
       <c r="G13" s="35"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>37</v>
       </c>
@@ -11669,7 +11729,7 @@
       </c>
       <c r="G14" s="35"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
         <v>37</v>
       </c>
@@ -11690,7 +11750,7 @@
       </c>
       <c r="G15" s="35"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -11711,7 +11771,7 @@
       </c>
       <c r="G16" s="35"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>37</v>
       </c>
@@ -11732,7 +11792,7 @@
       </c>
       <c r="G17" s="35"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>37</v>
       </c>
@@ -11753,7 +11813,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>37</v>
       </c>
@@ -11774,7 +11834,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>1429</v>
       </c>
@@ -11795,7 +11855,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>1429</v>
       </c>
@@ -11816,7 +11876,7 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>1429</v>
       </c>
@@ -11837,7 +11897,7 @@
       </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>1430</v>
       </c>
@@ -11858,7 +11918,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>1430</v>
       </c>
@@ -11879,7 +11939,7 @@
       </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>1430</v>
       </c>
@@ -11900,7 +11960,7 @@
       </c>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>1430</v>
       </c>
@@ -11921,7 +11981,7 @@
       </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>1430</v>
       </c>
@@ -11942,7 +12002,7 @@
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>1430</v>
       </c>
@@ -11963,7 +12023,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>1430</v>
       </c>
@@ -11984,7 +12044,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>1430</v>
       </c>
@@ -12005,7 +12065,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="127" t="s">
         <v>1429</v>
       </c>
@@ -12045,8 +12105,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O94"/>
@@ -12058,7 +12118,7 @@
       <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -12077,7 +12137,7 @@
     <col min="15" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="30" customFormat="1">
+    <row r="1" spans="1:14" s="30" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="85" t="s">
         <v>1321</v>
       </c>
@@ -12121,7 +12181,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="90">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -12163,7 +12223,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1">
+    <row r="3" spans="1:14" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -12203,7 +12263,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="11" customFormat="1">
+    <row r="4" spans="1:14" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -12243,7 +12303,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1">
+    <row r="5" spans="1:14" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -12285,7 +12345,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="19" customFormat="1">
+    <row r="6" spans="1:14" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -12327,7 +12387,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="20" customFormat="1">
+    <row r="7" spans="1:14" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -12367,7 +12427,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="11" customFormat="1">
+    <row r="8" spans="1:14" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -12407,7 +12467,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="11" customFormat="1">
+    <row r="9" spans="1:14" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -12449,7 +12509,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="11" customFormat="1" ht="60">
+    <row r="10" spans="1:14" s="11" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -12489,7 +12549,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="11" customFormat="1">
+    <row r="11" spans="1:14" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -12529,7 +12589,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="11" customFormat="1">
+    <row r="12" spans="1:14" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -12571,7 +12631,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="11" customFormat="1">
+    <row r="13" spans="1:14" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -12611,7 +12671,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="11" customFormat="1">
+    <row r="14" spans="1:14" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -12651,7 +12711,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="19" customFormat="1">
+    <row r="15" spans="1:14" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -12689,7 +12749,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="11" customFormat="1" ht="30">
+    <row r="16" spans="1:14" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -12731,7 +12791,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -12771,7 +12831,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -12809,7 +12869,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -12850,7 +12910,7 @@
       </c>
       <c r="O19" s="13"/>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -12891,7 +12951,7 @@
       </c>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="30">
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -12931,7 +12991,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -12971,7 +13031,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="20" customFormat="1">
+    <row r="23" spans="1:15" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -13009,7 +13069,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -13047,7 +13107,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1">
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -13085,7 +13145,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="11" customFormat="1">
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -13123,7 +13183,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="11" customFormat="1">
+    <row r="27" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -13161,7 +13221,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1">
+    <row r="28" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -13199,7 +13259,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1">
+    <row r="29" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="17">
         <v>28</v>
       </c>
@@ -13237,7 +13297,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1">
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <v>30</v>
       </c>
@@ -13275,7 +13335,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="20" customFormat="1">
+    <row r="31" spans="1:15" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="33">
         <v>34</v>
       </c>
@@ -13313,7 +13373,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="11" customFormat="1">
+    <row r="32" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>35</v>
       </c>
@@ -13353,7 +13413,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1">
+    <row r="33" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>36</v>
       </c>
@@ -13393,7 +13453,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="19" customFormat="1">
+    <row r="34" spans="1:15" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="34">
         <v>37</v>
       </c>
@@ -13435,7 +13495,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="11" customFormat="1">
+    <row r="35" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>38</v>
       </c>
@@ -13475,7 +13535,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1">
+    <row r="36" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>39</v>
       </c>
@@ -13513,7 +13573,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1">
+    <row r="37" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>40</v>
       </c>
@@ -13551,7 +13611,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="11" customFormat="1">
+    <row r="38" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>41</v>
       </c>
@@ -13589,7 +13649,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1">
+    <row r="39" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>42</v>
       </c>
@@ -13629,7 +13689,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="17">
         <v>43</v>
       </c>
@@ -13668,7 +13728,7 @@
       </c>
       <c r="O40" s="11"/>
     </row>
-    <row r="41" spans="1:15" s="20" customFormat="1">
+    <row r="41" spans="1:15" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>44</v>
       </c>
@@ -13710,7 +13770,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1">
+    <row r="42" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="17">
         <v>45</v>
       </c>
@@ -13750,7 +13810,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="11" customFormat="1">
+    <row r="43" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="17">
         <v>46</v>
       </c>
@@ -13790,7 +13850,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="11" customFormat="1">
+    <row r="44" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
         <v>47</v>
       </c>
@@ -13830,7 +13890,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="11" customFormat="1">
+    <row r="45" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="15">
         <v>48</v>
       </c>
@@ -13870,7 +13930,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="19" customFormat="1">
+    <row r="46" spans="1:15" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="18">
         <v>49</v>
       </c>
@@ -13910,7 +13970,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="20" customFormat="1">
+    <row r="47" spans="1:15" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>50</v>
       </c>
@@ -13950,7 +14010,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="11" customFormat="1">
+    <row r="48" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
         <v>51</v>
       </c>
@@ -13992,7 +14052,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="11" customFormat="1">
+    <row r="49" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
         <v>52</v>
       </c>
@@ -14032,7 +14092,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="11" customFormat="1">
+    <row r="50" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="17">
         <v>53</v>
       </c>
@@ -14070,7 +14130,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="11" customFormat="1" ht="75">
+    <row r="51" spans="1:15" s="11" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
         <v>54</v>
       </c>
@@ -14112,7 +14172,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="21" customFormat="1" ht="20">
+    <row r="52" spans="1:15" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="34">
         <v>54</v>
       </c>
@@ -14153,7 +14213,7 @@
       </c>
       <c r="O52" s="19"/>
     </row>
-    <row r="53" spans="1:15" s="20" customFormat="1">
+    <row r="53" spans="1:15" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="33">
         <v>55</v>
       </c>
@@ -14193,7 +14253,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="11" customFormat="1">
+    <row r="54" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <v>56</v>
       </c>
@@ -14233,7 +14293,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="11" customFormat="1" ht="30">
+    <row r="55" spans="1:15" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
         <v>57</v>
       </c>
@@ -14273,7 +14333,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="11" customFormat="1">
+    <row r="56" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
         <v>58</v>
       </c>
@@ -14313,7 +14373,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="20" customFormat="1">
+    <row r="57" spans="1:15" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="33">
         <v>60</v>
       </c>
@@ -14353,7 +14413,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="11" customFormat="1">
+    <row r="58" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="15">
         <v>61</v>
       </c>
@@ -14393,7 +14453,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="20" customFormat="1" ht="45">
+    <row r="59" spans="1:15" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="33">
         <v>62</v>
       </c>
@@ -14433,7 +14493,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="11" customFormat="1" ht="20">
+    <row r="60" spans="1:15" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>63</v>
       </c>
@@ -14474,7 +14534,7 @@
       </c>
       <c r="O60" s="64"/>
     </row>
-    <row r="61" spans="1:15" s="11" customFormat="1">
+    <row r="61" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
         <v>64</v>
       </c>
@@ -14514,7 +14574,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="19" customFormat="1">
+    <row r="62" spans="1:15" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="34">
         <v>65</v>
       </c>
@@ -14554,7 +14614,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="20" customFormat="1">
+    <row r="63" spans="1:15" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="33">
         <v>66</v>
       </c>
@@ -14592,7 +14652,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="11" customFormat="1">
+    <row r="64" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
         <v>67</v>
       </c>
@@ -14632,7 +14692,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="11" customFormat="1">
+    <row r="65" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="15">
         <v>68</v>
       </c>
@@ -14672,7 +14732,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="11" customFormat="1">
+    <row r="66" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="15">
         <v>69</v>
       </c>
@@ -14712,7 +14772,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="11" customFormat="1" ht="30">
+    <row r="67" spans="1:15" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="15">
         <v>70</v>
       </c>
@@ -14754,7 +14814,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="19" customFormat="1">
+    <row r="68" spans="1:15" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="34">
         <v>71</v>
       </c>
@@ -14794,7 +14854,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="11" customFormat="1">
+    <row r="69" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="15">
         <v>72</v>
       </c>
@@ -14834,7 +14894,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="17">
         <v>73</v>
       </c>
@@ -14875,7 +14935,7 @@
       </c>
       <c r="O70" s="11"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="17">
         <v>74</v>
       </c>
@@ -14916,7 +14976,7 @@
       </c>
       <c r="O71" s="11"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="17">
         <v>75</v>
       </c>
@@ -14955,7 +15015,7 @@
       </c>
       <c r="O72" s="11"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="17">
         <v>76</v>
       </c>
@@ -14996,7 +15056,7 @@
       </c>
       <c r="O73" s="11"/>
     </row>
-    <row r="74" spans="1:15" s="20" customFormat="1">
+    <row r="74" spans="1:15" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="33">
         <v>77</v>
       </c>
@@ -15036,7 +15096,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="11" customFormat="1">
+    <row r="75" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="15">
         <v>78</v>
       </c>
@@ -15076,7 +15136,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="11" customFormat="1">
+    <row r="76" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="15">
         <v>80</v>
       </c>
@@ -15114,7 +15174,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="11" customFormat="1">
+    <row r="77" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="15">
         <v>81</v>
       </c>
@@ -15154,7 +15214,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="19" customFormat="1">
+    <row r="78" spans="1:15" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="34">
         <v>82</v>
       </c>
@@ -15194,7 +15254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="11" customFormat="1">
+    <row r="79" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="15">
         <v>83</v>
       </c>
@@ -15234,7 +15294,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="11" customFormat="1">
+    <row r="80" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="17">
         <v>84</v>
       </c>
@@ -15272,7 +15332,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="11" customFormat="1">
+    <row r="81" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="17">
         <v>85</v>
       </c>
@@ -15312,7 +15372,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:15" s="11" customFormat="1">
+    <row r="82" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="17">
         <v>86</v>
       </c>
@@ -15352,7 +15412,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="11" customFormat="1">
+    <row r="83" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="17">
         <v>87</v>
       </c>
@@ -15392,7 +15452,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="11" customFormat="1">
+    <row r="84" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="17">
         <v>88</v>
       </c>
@@ -15432,7 +15492,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="11" customFormat="1">
+    <row r="85" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="15">
         <v>90</v>
       </c>
@@ -15470,7 +15530,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:15" s="19" customFormat="1">
+    <row r="86" spans="1:15" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="34">
         <v>91</v>
       </c>
@@ -15510,7 +15570,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:15" s="11" customFormat="1">
+    <row r="87" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="17">
         <v>93</v>
       </c>
@@ -15550,7 +15610,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:15" s="11" customFormat="1">
+    <row r="88" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="18">
         <v>94</v>
       </c>
@@ -15588,7 +15648,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:15" s="11" customFormat="1">
+    <row r="89" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="16">
         <v>95</v>
       </c>
@@ -15628,7 +15688,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="45">
+    <row r="90" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="72">
         <v>1029</v>
       </c>
@@ -15671,7 +15731,7 @@
       </c>
       <c r="O90" s="11"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="63">
         <v>999</v>
       </c>
@@ -15709,7 +15769,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="129">
         <v>999</v>
       </c>
@@ -15747,7 +15807,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="129">
         <v>999</v>
       </c>
@@ -15785,7 +15845,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="129">
         <v>999</v>
       </c>
@@ -15864,7 +15924,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Waardelijsten!$A:$A</xm:f>
           </x14:formula1>
@@ -15880,8 +15940,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I23"/>
@@ -15893,7 +15953,7 @@
       <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="26.5" style="13" customWidth="1"/>
@@ -15905,7 +15965,7 @@
     <col min="9" max="9" width="98.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="131" t="s">
         <v>1569</v>
       </c>
@@ -15934,7 +15994,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>1425</v>
       </c>
@@ -15963,7 +16023,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1424</v>
       </c>
@@ -15992,7 +16052,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>1422</v>
       </c>
@@ -16021,7 +16081,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -16050,7 +16110,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="13" customFormat="1">
+    <row r="6" spans="1:9" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>1441</v>
       </c>
@@ -16079,7 +16139,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>1442</v>
       </c>
@@ -16106,7 +16166,7 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -16133,7 +16193,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>1399</v>
       </c>
@@ -16162,7 +16222,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30">
+    <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>1443</v>
       </c>
@@ -16191,7 +16251,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30">
+    <row r="11" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>1444</v>
       </c>
@@ -16220,7 +16280,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>1400</v>
       </c>
@@ -16249,7 +16309,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>1419</v>
       </c>
@@ -16276,7 +16336,7 @@
       </c>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>1572</v>
       </c>
@@ -16303,7 +16363,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>1445</v>
       </c>
@@ -16330,7 +16390,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>1427</v>
       </c>
@@ -16349,7 +16409,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="30">
+    <row r="17" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -16370,7 +16430,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30">
+    <row r="18" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -16391,7 +16451,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30">
+    <row r="19" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -16412,7 +16472,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30">
+    <row r="20" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -16433,7 +16493,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30">
+    <row r="21" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -16454,7 +16514,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -16475,7 +16535,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30">
+    <row r="23" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -16512,8 +16572,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I243"/>
@@ -16525,7 +16585,7 @@
       <selection pane="bottomRight" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" style="12" customWidth="1"/>
@@ -16537,7 +16597,7 @@
     <col min="8" max="8" width="68.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" ht="20">
+    <row r="1" spans="1:8" s="14" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>1261</v>
       </c>
@@ -16559,7 +16619,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>1425</v>
       </c>
@@ -16579,7 +16639,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>1425</v>
       </c>
@@ -16599,7 +16659,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>1425</v>
       </c>
@@ -16619,7 +16679,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>1424</v>
       </c>
@@ -16639,7 +16699,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>1424</v>
       </c>
@@ -16659,7 +16719,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>1424</v>
       </c>
@@ -16679,7 +16739,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>1424</v>
       </c>
@@ -16699,7 +16759,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>1424</v>
       </c>
@@ -16719,7 +16779,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>1424</v>
       </c>
@@ -16739,7 +16799,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>1424</v>
       </c>
@@ -16759,7 +16819,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>1424</v>
       </c>
@@ -16779,7 +16839,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>1424</v>
       </c>
@@ -16799,7 +16859,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>1424</v>
       </c>
@@ -16819,7 +16879,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>1424</v>
       </c>
@@ -16839,7 +16899,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>1424</v>
       </c>
@@ -16859,7 +16919,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>1424</v>
       </c>
@@ -16879,7 +16939,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>1422</v>
       </c>
@@ -16899,7 +16959,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>1422</v>
       </c>
@@ -16919,7 +16979,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>1422</v>
       </c>
@@ -16939,7 +16999,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>1422</v>
       </c>
@@ -16959,7 +17019,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>1422</v>
       </c>
@@ -16979,7 +17039,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>1422</v>
       </c>
@@ -16999,7 +17059,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>1422</v>
       </c>
@@ -17019,7 +17079,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>1422</v>
       </c>
@@ -17039,7 +17099,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>1422</v>
       </c>
@@ -17059,7 +17119,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>1422</v>
       </c>
@@ -17079,7 +17139,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>1422</v>
       </c>
@@ -17099,7 +17159,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>28</v>
       </c>
@@ -17119,7 +17179,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>28</v>
       </c>
@@ -17139,7 +17199,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>28</v>
       </c>
@@ -17159,7 +17219,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>28</v>
       </c>
@@ -17179,7 +17239,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>1445</v>
       </c>
@@ -17199,7 +17259,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>1445</v>
       </c>
@@ -17219,7 +17279,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>1445</v>
       </c>
@@ -17239,7 +17299,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>1445</v>
       </c>
@@ -17259,7 +17319,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>1445</v>
       </c>
@@ -17279,7 +17339,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>1445</v>
       </c>
@@ -17299,7 +17359,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>1445</v>
       </c>
@@ -17319,7 +17379,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>1445</v>
       </c>
@@ -17339,7 +17399,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>1445</v>
       </c>
@@ -17359,7 +17419,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>1445</v>
       </c>
@@ -17379,7 +17439,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>1445</v>
       </c>
@@ -17399,7 +17459,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>1445</v>
       </c>
@@ -17419,7 +17479,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>1445</v>
       </c>
@@ -17439,7 +17499,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>1445</v>
       </c>
@@ -17459,7 +17519,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>1445</v>
       </c>
@@ -17479,7 +17539,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>1445</v>
       </c>
@@ -17499,7 +17559,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>1445</v>
       </c>
@@ -17519,7 +17579,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>1441</v>
       </c>
@@ -17539,7 +17599,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>1441</v>
       </c>
@@ -17559,7 +17619,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>1441</v>
       </c>
@@ -17579,7 +17639,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:9" ht="45">
+    <row r="53" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>1442</v>
       </c>
@@ -17604,7 +17664,7 @@
       </c>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>1442</v>
       </c>
@@ -17631,7 +17691,7 @@
       </c>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>1442</v>
       </c>
@@ -17656,7 +17716,7 @@
       <c r="H55" s="5"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" ht="30">
+    <row r="56" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>1442</v>
       </c>
@@ -17681,7 +17741,7 @@
       </c>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>1442</v>
       </c>
@@ -17706,7 +17766,7 @@
       <c r="H57" s="5"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" ht="75">
+    <row r="58" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>1442</v>
       </c>
@@ -17731,7 +17791,7 @@
       <c r="H58" s="5"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" ht="45">
+    <row r="59" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>1442</v>
       </c>
@@ -17756,7 +17816,7 @@
       </c>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" ht="30">
+    <row r="60" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>1442</v>
       </c>
@@ -17783,7 +17843,7 @@
       </c>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>1442</v>
       </c>
@@ -17806,7 +17866,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" ht="30">
+    <row r="62" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>1442</v>
       </c>
@@ -17831,7 +17891,7 @@
       </c>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" ht="30">
+    <row r="63" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>1442</v>
       </c>
@@ -17858,7 +17918,7 @@
       </c>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" ht="60">
+    <row r="64" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>1442</v>
       </c>
@@ -17883,7 +17943,7 @@
       </c>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" ht="60">
+    <row r="65" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>1442</v>
       </c>
@@ -17908,7 +17968,7 @@
       </c>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" ht="30">
+    <row r="66" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>1442</v>
       </c>
@@ -17933,7 +17993,7 @@
       </c>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" ht="30">
+    <row r="67" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>1442</v>
       </c>
@@ -17958,7 +18018,7 @@
       </c>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>1442</v>
       </c>
@@ -17981,7 +18041,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18004,7 +18064,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" ht="30">
+    <row r="70" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18029,7 +18089,7 @@
       </c>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" ht="30">
+    <row r="71" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18054,7 +18114,7 @@
       </c>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18077,7 +18137,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18100,7 +18160,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" ht="30">
+    <row r="74" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18125,7 +18185,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18148,7 +18208,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" ht="30">
+    <row r="76" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18173,7 +18233,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" ht="30">
+    <row r="77" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18198,7 +18258,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" ht="60">
+    <row r="78" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18223,7 +18283,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18246,7 +18306,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18271,7 +18331,7 @@
       <c r="H80" s="5"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" ht="30">
+    <row r="81" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18296,7 +18356,7 @@
       </c>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18319,7 +18379,7 @@
       <c r="H82" s="5"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18344,7 +18404,7 @@
       <c r="H83" s="5"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18367,7 +18427,7 @@
       <c r="H84" s="5"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:9" ht="45">
+    <row r="85" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18392,7 +18452,7 @@
       </c>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" ht="30">
+    <row r="86" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18417,7 +18477,7 @@
       <c r="H86" s="5"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18442,7 +18502,7 @@
       <c r="H87" s="5"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" ht="45">
+    <row r="88" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18469,7 +18529,7 @@
       </c>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:9" ht="30">
+    <row r="89" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18494,7 +18554,7 @@
       <c r="H89" s="5"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:9" ht="60">
+    <row r="90" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18519,7 +18579,7 @@
       <c r="H90" s="5"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18544,7 +18604,7 @@
       <c r="H91" s="5"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18569,7 +18629,7 @@
       <c r="H92" s="5"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>1442</v>
       </c>
@@ -18589,7 +18649,7 @@
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>20</v>
       </c>
@@ -18611,7 +18671,7 @@
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>20</v>
       </c>
@@ -18633,7 +18693,7 @@
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>20</v>
       </c>
@@ -18655,7 +18715,7 @@
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>20</v>
       </c>
@@ -18677,7 +18737,7 @@
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
         <v>20</v>
       </c>
@@ -18699,7 +18759,7 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>20</v>
       </c>
@@ -18721,7 +18781,7 @@
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
         <v>20</v>
       </c>
@@ -18743,7 +18803,7 @@
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>20</v>
       </c>
@@ -18765,7 +18825,7 @@
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
         <v>20</v>
       </c>
@@ -18787,7 +18847,7 @@
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>20</v>
       </c>
@@ -18809,7 +18869,7 @@
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>20</v>
       </c>
@@ -18831,7 +18891,7 @@
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="13" t="s">
         <v>20</v>
       </c>
@@ -18853,7 +18913,7 @@
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="13" t="s">
         <v>20</v>
       </c>
@@ -18875,7 +18935,7 @@
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="13" t="s">
         <v>20</v>
       </c>
@@ -18897,7 +18957,7 @@
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
         <v>20</v>
       </c>
@@ -18919,7 +18979,7 @@
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="13" t="s">
         <v>20</v>
       </c>
@@ -18941,7 +19001,7 @@
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
         <v>20</v>
       </c>
@@ -18963,7 +19023,7 @@
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>20</v>
       </c>
@@ -18985,7 +19045,7 @@
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="13" t="s">
         <v>20</v>
       </c>
@@ -19007,7 +19067,7 @@
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="13" t="s">
         <v>20</v>
       </c>
@@ -19029,7 +19089,7 @@
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="13" t="s">
         <v>20</v>
       </c>
@@ -19051,7 +19111,7 @@
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>20</v>
       </c>
@@ -19073,7 +19133,7 @@
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="13" t="s">
         <v>1399</v>
       </c>
@@ -19093,7 +19153,7 @@
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>1399</v>
       </c>
@@ -19113,7 +19173,7 @@
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
         <v>1399</v>
       </c>
@@ -19133,7 +19193,7 @@
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="13" t="s">
         <v>1399</v>
       </c>
@@ -19153,7 +19213,7 @@
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="27" t="s">
         <v>3</v>
       </c>
@@ -19173,7 +19233,7 @@
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="27" t="s">
         <v>3</v>
       </c>
@@ -19193,7 +19253,7 @@
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
         <v>1419</v>
       </c>
@@ -19217,7 +19277,7 @@
       </c>
       <c r="H122" s="5"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="13" t="s">
         <v>1419</v>
       </c>
@@ -19239,7 +19299,7 @@
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="13" t="s">
         <v>1419</v>
       </c>
@@ -19261,7 +19321,7 @@
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="13" t="s">
         <v>1419</v>
       </c>
@@ -19281,7 +19341,7 @@
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="13" t="s">
         <v>1419</v>
       </c>
@@ -19301,7 +19361,7 @@
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="13" t="s">
         <v>1419</v>
       </c>
@@ -19323,7 +19383,7 @@
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="13" t="s">
         <v>1419</v>
       </c>
@@ -19345,7 +19405,7 @@
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
         <v>1443</v>
       </c>
@@ -19367,7 +19427,7 @@
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>1443</v>
       </c>
@@ -19389,7 +19449,7 @@
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="13" t="s">
         <v>1443</v>
       </c>
@@ -19411,7 +19471,7 @@
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="13" t="s">
         <v>1443</v>
       </c>
@@ -19433,7 +19493,7 @@
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="13" t="s">
         <v>1443</v>
       </c>
@@ -19453,7 +19513,7 @@
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19475,7 +19535,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19497,7 +19557,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19519,7 +19579,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19541,7 +19601,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19563,7 +19623,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19585,7 +19645,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19607,7 +19667,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19629,7 +19689,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19651,7 +19711,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19673,7 +19733,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19695,7 +19755,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19717,7 +19777,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19739,7 +19799,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19761,7 +19821,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19783,7 +19843,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19805,7 +19865,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19827,7 +19887,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19847,7 +19907,7 @@
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19867,7 +19927,7 @@
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19887,7 +19947,7 @@
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19907,7 +19967,7 @@
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19927,7 +19987,7 @@
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19947,7 +20007,7 @@
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19967,7 +20027,7 @@
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="13" t="s">
         <v>1400</v>
       </c>
@@ -19987,7 +20047,7 @@
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20007,7 +20067,7 @@
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20027,7 +20087,7 @@
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20047,7 +20107,7 @@
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20067,7 +20127,7 @@
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20087,7 +20147,7 @@
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20107,7 +20167,7 @@
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20127,7 +20187,7 @@
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20147,7 +20207,7 @@
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20167,7 +20227,7 @@
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20187,7 +20247,7 @@
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20207,7 +20267,7 @@
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20227,7 +20287,7 @@
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20247,7 +20307,7 @@
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20267,7 +20327,7 @@
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20287,7 +20347,7 @@
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20307,7 +20367,7 @@
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20327,7 +20387,7 @@
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20347,7 +20407,7 @@
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20367,7 +20427,7 @@
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20387,7 +20447,7 @@
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20407,7 +20467,7 @@
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20427,7 +20487,7 @@
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20447,7 +20507,7 @@
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20467,7 +20527,7 @@
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20487,7 +20547,7 @@
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20507,7 +20567,7 @@
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20527,7 +20587,7 @@
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20547,7 +20607,7 @@
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20567,7 +20627,7 @@
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20587,7 +20647,7 @@
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20607,7 +20667,7 @@
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20627,7 +20687,7 @@
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20647,7 +20707,7 @@
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20667,7 +20727,7 @@
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20687,7 +20747,7 @@
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20707,7 +20767,7 @@
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20727,7 +20787,7 @@
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20747,7 +20807,7 @@
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20767,7 +20827,7 @@
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20787,7 +20847,7 @@
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20807,7 +20867,7 @@
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20827,7 +20887,7 @@
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20847,7 +20907,7 @@
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20867,7 +20927,7 @@
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20887,7 +20947,7 @@
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20907,7 +20967,7 @@
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20927,7 +20987,7 @@
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20947,7 +21007,7 @@
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20967,7 +21027,7 @@
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="13" t="s">
         <v>1400</v>
       </c>
@@ -20987,7 +21047,7 @@
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21007,7 +21067,7 @@
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21027,7 +21087,7 @@
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21047,7 +21107,7 @@
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21067,7 +21127,7 @@
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21087,7 +21147,7 @@
       <c r="G213" s="5"/>
       <c r="H213" s="5"/>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21107,7 +21167,7 @@
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21127,7 +21187,7 @@
       <c r="G215" s="5"/>
       <c r="H215" s="5"/>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21147,7 +21207,7 @@
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21167,7 +21227,7 @@
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21187,7 +21247,7 @@
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21207,7 +21267,7 @@
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21227,7 +21287,7 @@
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21247,7 +21307,7 @@
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21267,7 +21327,7 @@
       <c r="G222" s="5"/>
       <c r="H222" s="5"/>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21287,7 +21347,7 @@
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21307,7 +21367,7 @@
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21327,7 +21387,7 @@
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21347,7 +21407,7 @@
       <c r="G226" s="5"/>
       <c r="H226" s="5"/>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21367,7 +21427,7 @@
       <c r="G227" s="5"/>
       <c r="H227" s="5"/>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21387,7 +21447,7 @@
       <c r="G228" s="5"/>
       <c r="H228" s="5"/>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21407,7 +21467,7 @@
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21427,7 +21487,7 @@
       <c r="G230" s="5"/>
       <c r="H230" s="5"/>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21447,7 +21507,7 @@
       <c r="G231" s="5"/>
       <c r="H231" s="5"/>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21467,7 +21527,7 @@
       <c r="G232" s="5"/>
       <c r="H232" s="5"/>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21487,7 +21547,7 @@
       <c r="G233" s="5"/>
       <c r="H233" s="5"/>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21507,7 +21567,7 @@
       <c r="G234" s="5"/>
       <c r="H234" s="5"/>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21527,7 +21587,7 @@
       <c r="G235" s="5"/>
       <c r="H235" s="5"/>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21547,7 +21607,7 @@
       <c r="G236" s="5"/>
       <c r="H236" s="5"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21567,7 +21627,7 @@
       <c r="G237" s="5"/>
       <c r="H237" s="5"/>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21587,7 +21647,7 @@
       <c r="G238" s="5"/>
       <c r="H238" s="5"/>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21607,7 +21667,7 @@
       <c r="G239" s="5"/>
       <c r="H239" s="5"/>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21627,7 +21687,7 @@
       <c r="G240" s="5"/>
       <c r="H240" s="5"/>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21647,7 +21707,7 @@
       <c r="G241" s="5"/>
       <c r="H241" s="5"/>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21667,7 +21727,7 @@
       <c r="G242" s="5"/>
       <c r="H242" s="5"/>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="13" t="s">
         <v>1400</v>
       </c>
@@ -21699,7 +21759,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
           <x14:formula1>
             <xm:f>Waardelijsten!$A:$A</xm:f>
           </x14:formula1>
@@ -21715,20 +21775,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="54" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="5" customWidth="1"/>
@@ -21738,10 +21798,11 @@
     <col min="6" max="7" width="39.1640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="61.1640625" style="5" customWidth="1"/>
     <col min="9" max="9" width="73.1640625" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="7"/>
+    <col min="10" max="10" width="62.83203125" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="23">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>29</v>
       </c>
@@ -21769,8 +21830,11 @@
       <c r="I1" s="6" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="67" customFormat="1" ht="77">
+      <c r="J1" s="6" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="67" customFormat="1" ht="87" x14ac:dyDescent="0.3">
       <c r="A2" s="51">
         <v>46</v>
       </c>
@@ -21797,7 +21861,7 @@
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" s="67" customFormat="1" ht="47">
+    <row r="3" spans="1:10" s="67" customFormat="1" ht="53" x14ac:dyDescent="0.3">
       <c r="A3" s="51">
         <v>47</v>
       </c>
@@ -21824,7 +21888,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="67" customFormat="1" ht="167">
+    <row r="4" spans="1:10" s="67" customFormat="1" ht="206" x14ac:dyDescent="0.3">
       <c r="A4" s="51">
         <v>43</v>
       </c>
@@ -21846,10 +21910,12 @@
       <c r="G4" s="5" t="s">
         <v>1213</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>1599</v>
+      </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="67" customFormat="1" ht="47">
+    <row r="5" spans="1:10" s="67" customFormat="1" ht="53" x14ac:dyDescent="0.3">
       <c r="A5" s="51">
         <v>12</v>
       </c>
@@ -21878,7 +21944,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="67" customFormat="1" ht="62">
+    <row r="6" spans="1:10" s="67" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A6" s="51">
         <v>30</v>
       </c>
@@ -21905,7 +21971,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" s="67" customFormat="1" ht="47">
+    <row r="7" spans="1:10" s="67" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A7" s="51">
         <v>31</v>
       </c>
@@ -21930,9 +21996,11 @@
       <c r="H7" s="5" t="s">
         <v>994</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" s="67" customFormat="1" ht="107">
+      <c r="I7" s="7" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="67" customFormat="1" ht="121" x14ac:dyDescent="0.3">
       <c r="A8" s="51">
         <v>32</v>
       </c>
@@ -21959,7 +22027,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" s="67" customFormat="1" ht="62">
+    <row r="9" spans="1:10" s="67" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A9" s="51">
         <v>19</v>
       </c>
@@ -21988,7 +22056,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="67" customFormat="1" ht="152">
+    <row r="10" spans="1:10" s="67" customFormat="1" ht="189" x14ac:dyDescent="0.3">
       <c r="A10" s="51">
         <v>50</v>
       </c>
@@ -22013,7 +22081,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" s="67" customFormat="1" ht="107">
+    <row r="11" spans="1:10" s="67" customFormat="1" ht="121" x14ac:dyDescent="0.3">
       <c r="A11" s="55">
         <v>53</v>
       </c>
@@ -22038,9 +22106,11 @@
       <c r="H11" s="8" t="s">
         <v>1121</v>
       </c>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" ht="47">
+      <c r="I11" s="8" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="53" x14ac:dyDescent="0.3">
       <c r="A12" s="51">
         <v>62</v>
       </c>
@@ -22056,8 +22126,11 @@
       <c r="G12" s="5" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="62">
+      <c r="H12" s="5" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="121" x14ac:dyDescent="0.3">
       <c r="A13" s="51">
         <v>7</v>
       </c>
@@ -22085,8 +22158,11 @@
       <c r="I13" s="5" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="92">
+      <c r="J13" s="5" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="104" x14ac:dyDescent="0.3">
       <c r="A14" s="51">
         <v>8</v>
       </c>
@@ -22114,8 +22190,11 @@
       <c r="I14" s="5" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="62">
+      <c r="J14" s="7" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="70" x14ac:dyDescent="0.3">
       <c r="A15" s="51">
         <v>15</v>
       </c>
@@ -22143,8 +22222,11 @@
       <c r="I15" s="5" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="27" customFormat="1" ht="92">
+      <c r="J15" s="7" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="27" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A16" s="51">
         <v>41</v>
       </c>
@@ -22169,9 +22251,11 @@
       <c r="H16" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" s="67" customFormat="1" ht="62">
+      <c r="I16" s="7" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="67" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A17" s="51">
         <v>61</v>
       </c>
@@ -22196,9 +22280,11 @@
       <c r="H17" s="5" t="s">
         <v>1114</v>
       </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="182">
+      <c r="I17" s="7" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="206" x14ac:dyDescent="0.3">
       <c r="A18" s="51">
         <v>58</v>
       </c>
@@ -22223,8 +22309,11 @@
       <c r="H18" s="5" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="77">
+      <c r="I18" s="5" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="87" x14ac:dyDescent="0.3">
       <c r="A19" s="51">
         <v>9</v>
       </c>
@@ -22252,8 +22341,11 @@
       <c r="I19" s="5" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="62">
+      <c r="J19" s="5" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="70" x14ac:dyDescent="0.3">
       <c r="A20" s="51">
         <v>29</v>
       </c>
@@ -22278,8 +22370,11 @@
       <c r="H20" s="5" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="77">
+      <c r="I20" s="5" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="87" x14ac:dyDescent="0.3">
       <c r="A21" s="51">
         <v>17</v>
       </c>
@@ -22307,8 +22402,11 @@
       <c r="I21" s="5" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="47">
+      <c r="J21" s="5" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="53" x14ac:dyDescent="0.3">
       <c r="A22" s="51">
         <v>51</v>
       </c>
@@ -22333,8 +22431,11 @@
       <c r="H22" s="5" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="62">
+      <c r="I22" s="7" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="70" x14ac:dyDescent="0.3">
       <c r="A23" s="51">
         <v>33</v>
       </c>
@@ -22359,8 +22460,11 @@
       <c r="H23" s="5" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="107">
+      <c r="I23" s="5" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="121" x14ac:dyDescent="0.3">
       <c r="A24" s="51">
         <v>10</v>
       </c>
@@ -22388,8 +22492,11 @@
       <c r="I24" s="5" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="27" customFormat="1" ht="92">
+      <c r="J24" s="5" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="27" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A25" s="51">
         <v>11</v>
       </c>
@@ -22417,8 +22524,11 @@
       <c r="I25" s="7" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="27" customFormat="1" ht="47">
+      <c r="J25" s="27" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="27" customFormat="1" ht="53" x14ac:dyDescent="0.3">
       <c r="A26" s="55">
         <v>54</v>
       </c>
@@ -22443,8 +22553,11 @@
       <c r="H26" s="8" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="47">
+      <c r="I26" s="8" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="53" x14ac:dyDescent="0.3">
       <c r="A27" s="65">
         <v>5</v>
       </c>
@@ -22473,7 +22586,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="47">
+    <row r="28" spans="1:10" ht="53" x14ac:dyDescent="0.3">
       <c r="A28" s="65">
         <v>27</v>
       </c>
@@ -22500,7 +22613,7 @@
       </c>
       <c r="I28" s="67"/>
     </row>
-    <row r="29" spans="1:9" ht="62">
+    <row r="29" spans="1:10" ht="70" x14ac:dyDescent="0.3">
       <c r="A29" s="52">
         <v>28</v>
       </c>
@@ -22527,7 +22640,7 @@
       </c>
       <c r="I29" s="48"/>
     </row>
-    <row r="30" spans="1:9" ht="62">
+    <row r="30" spans="1:10" ht="70" x14ac:dyDescent="0.3">
       <c r="A30" s="52">
         <v>34</v>
       </c>
@@ -22554,7 +22667,7 @@
       </c>
       <c r="I30" s="48"/>
     </row>
-    <row r="31" spans="1:9" ht="47">
+    <row r="31" spans="1:10" ht="53" x14ac:dyDescent="0.3">
       <c r="A31" s="52">
         <v>35</v>
       </c>
@@ -22577,7 +22690,7 @@
       <c r="H31" s="47"/>
       <c r="I31" s="48"/>
     </row>
-    <row r="32" spans="1:9" ht="107">
+    <row r="32" spans="1:10" ht="121" x14ac:dyDescent="0.3">
       <c r="A32" s="52">
         <v>36</v>
       </c>
@@ -22604,7 +22717,7 @@
       </c>
       <c r="I32" s="48"/>
     </row>
-    <row r="33" spans="1:9" ht="47">
+    <row r="33" spans="1:9" ht="53" x14ac:dyDescent="0.3">
       <c r="A33" s="52">
         <v>37</v>
       </c>
@@ -22629,7 +22742,7 @@
       <c r="H33" s="47"/>
       <c r="I33" s="48"/>
     </row>
-    <row r="34" spans="1:9" s="27" customFormat="1" ht="62">
+    <row r="34" spans="1:9" s="27" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A34" s="52">
         <v>38</v>
       </c>
@@ -22656,7 +22769,7 @@
       </c>
       <c r="I34" s="48"/>
     </row>
-    <row r="35" spans="1:9" ht="107">
+    <row r="35" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A35" s="52">
         <v>39</v>
       </c>
@@ -22683,7 +22796,7 @@
       </c>
       <c r="I35" s="48"/>
     </row>
-    <row r="36" spans="1:9" ht="47">
+    <row r="36" spans="1:9" ht="70" x14ac:dyDescent="0.3">
       <c r="A36" s="52">
         <v>40</v>
       </c>
@@ -22710,7 +22823,7 @@
       </c>
       <c r="I36" s="48"/>
     </row>
-    <row r="37" spans="1:9" ht="62">
+    <row r="37" spans="1:9" ht="70" x14ac:dyDescent="0.3">
       <c r="A37" s="52">
         <v>44</v>
       </c>
@@ -22737,7 +22850,7 @@
       </c>
       <c r="I37" s="48"/>
     </row>
-    <row r="38" spans="1:9" ht="62">
+    <row r="38" spans="1:9" ht="70" x14ac:dyDescent="0.3">
       <c r="A38" s="52">
         <v>52</v>
       </c>
@@ -22764,7 +22877,7 @@
       </c>
       <c r="I38" s="48"/>
     </row>
-    <row r="39" spans="1:9" ht="62">
+    <row r="39" spans="1:9" ht="70" x14ac:dyDescent="0.3">
       <c r="A39" s="52">
         <v>55</v>
       </c>
@@ -22789,7 +22902,7 @@
       <c r="H39" s="47"/>
       <c r="I39" s="48"/>
     </row>
-    <row r="40" spans="1:9" ht="23">
+    <row r="40" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A40" s="65">
         <v>57</v>
       </c>
@@ -22816,7 +22929,7 @@
       </c>
       <c r="I40" s="67"/>
     </row>
-    <row r="41" spans="1:9" ht="92">
+    <row r="41" spans="1:9" ht="104" x14ac:dyDescent="0.3">
       <c r="A41" s="65">
         <v>1</v>
       </c>
@@ -22845,7 +22958,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="47">
+    <row r="42" spans="1:9" ht="53" x14ac:dyDescent="0.3">
       <c r="A42" s="52">
         <v>2</v>
       </c>
@@ -22868,7 +22981,7 @@
       </c>
       <c r="I42" s="48"/>
     </row>
-    <row r="43" spans="1:9" ht="92">
+    <row r="43" spans="1:9" ht="104" x14ac:dyDescent="0.3">
       <c r="A43" s="52">
         <v>3</v>
       </c>
@@ -22897,7 +23010,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="77">
+    <row r="44" spans="1:9" ht="104" x14ac:dyDescent="0.3">
       <c r="A44" s="65">
         <v>4</v>
       </c>
@@ -22926,7 +23039,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="32">
+    <row r="45" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A45" s="52">
         <v>6</v>
       </c>
@@ -22955,7 +23068,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="62">
+    <row r="46" spans="1:9" ht="70" x14ac:dyDescent="0.3">
       <c r="A46" s="78">
         <v>56</v>
       </c>
@@ -22982,7 +23095,7 @@
       </c>
       <c r="I46" s="77"/>
     </row>
-    <row r="47" spans="1:9" ht="92">
+    <row r="47" spans="1:9" ht="104" x14ac:dyDescent="0.3">
       <c r="A47" s="65">
         <v>13</v>
       </c>
@@ -23011,7 +23124,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="122">
+    <row r="48" spans="1:9" ht="138" x14ac:dyDescent="0.3">
       <c r="A48" s="52">
         <v>20</v>
       </c>
@@ -23040,7 +23153,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="47">
+    <row r="49" spans="1:9" ht="53" x14ac:dyDescent="0.3">
       <c r="A49" s="65">
         <v>14</v>
       </c>
@@ -23069,7 +23182,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="47">
+    <row r="50" spans="1:9" ht="53" x14ac:dyDescent="0.3">
       <c r="A50" s="52">
         <v>42</v>
       </c>
@@ -23096,7 +23209,7 @@
       </c>
       <c r="I50" s="48"/>
     </row>
-    <row r="51" spans="1:9" ht="107">
+    <row r="51" spans="1:9" ht="121" x14ac:dyDescent="0.3">
       <c r="A51" s="65">
         <v>21</v>
       </c>
@@ -23123,7 +23236,7 @@
       </c>
       <c r="I51" s="66"/>
     </row>
-    <row r="52" spans="1:9" ht="32">
+    <row r="52" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A52" s="65">
         <v>22</v>
       </c>
@@ -23150,7 +23263,7 @@
       </c>
       <c r="I52" s="66"/>
     </row>
-    <row r="53" spans="1:9" ht="23">
+    <row r="53" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A53" s="65">
         <v>23</v>
       </c>
@@ -23177,7 +23290,7 @@
       </c>
       <c r="I53" s="66"/>
     </row>
-    <row r="54" spans="1:9" ht="32">
+    <row r="54" spans="1:9" ht="53" x14ac:dyDescent="0.3">
       <c r="A54" s="65">
         <v>24</v>
       </c>
@@ -23204,7 +23317,7 @@
       </c>
       <c r="I54" s="66"/>
     </row>
-    <row r="55" spans="1:9" ht="62">
+    <row r="55" spans="1:9" ht="70" x14ac:dyDescent="0.3">
       <c r="A55" s="65">
         <v>25</v>
       </c>
@@ -23231,7 +23344,7 @@
       </c>
       <c r="I55" s="66"/>
     </row>
-    <row r="56" spans="1:9" ht="107">
+    <row r="56" spans="1:9" ht="121" x14ac:dyDescent="0.3">
       <c r="A56" s="65">
         <v>59</v>
       </c>
@@ -23258,7 +23371,7 @@
       </c>
       <c r="I56" s="66"/>
     </row>
-    <row r="57" spans="1:9" ht="62">
+    <row r="57" spans="1:9" ht="70" x14ac:dyDescent="0.3">
       <c r="A57" s="57">
         <v>16</v>
       </c>
@@ -23285,7 +23398,7 @@
       </c>
       <c r="I57" s="59"/>
     </row>
-    <row r="58" spans="1:9" ht="92">
+    <row r="58" spans="1:9" ht="104" x14ac:dyDescent="0.3">
       <c r="A58" s="57">
         <v>18</v>
       </c>
@@ -23314,7 +23427,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="47">
+    <row r="59" spans="1:9" ht="53" x14ac:dyDescent="0.3">
       <c r="A59" s="52">
         <v>45</v>
       </c>
@@ -23339,7 +23452,7 @@
       <c r="H59" s="47"/>
       <c r="I59" s="48"/>
     </row>
-    <row r="60" spans="1:9" ht="167">
+    <row r="60" spans="1:9" ht="189" x14ac:dyDescent="0.3">
       <c r="A60" s="57">
         <v>48</v>
       </c>
@@ -23366,7 +23479,7 @@
       </c>
       <c r="I60" s="59"/>
     </row>
-    <row r="61" spans="1:9" ht="32">
+    <row r="61" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A61" s="57">
         <v>49</v>
       </c>
@@ -23393,7 +23506,7 @@
       </c>
       <c r="I61" s="59"/>
     </row>
-    <row r="62" spans="1:9" ht="107">
+    <row r="62" spans="1:9" ht="121" x14ac:dyDescent="0.3">
       <c r="A62" s="57">
         <v>60</v>
       </c>
@@ -23420,7 +23533,7 @@
       </c>
       <c r="I62" s="59"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>1009</v>
       </c>
@@ -23428,7 +23541,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>1004</v>
       </c>
@@ -23436,7 +23549,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>938</v>
       </c>
@@ -23448,7 +23561,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>1109</v>
       </c>
@@ -23460,7 +23573,7 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8" ht="23">
+    <row r="67" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A67" s="51"/>
       <c r="D67" s="36"/>
       <c r="E67" s="7"/>
@@ -23468,7 +23581,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" ht="23">
+    <row r="68" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A68" s="51"/>
       <c r="D68" s="36"/>
       <c r="E68" s="7"/>
@@ -23476,7 +23589,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="53"/>
       <c r="B69" s="4" t="s">
         <v>1230</v>
@@ -23487,7 +23600,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5" t="s">
         <v>1231</v>
@@ -23497,7 +23610,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5" t="s">
         <v>1010</v>
@@ -23507,7 +23620,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="53"/>
       <c r="B72" s="5" t="s">
         <v>1232</v>
@@ -23517,14 +23630,14 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="53"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="53"/>
       <c r="B74" s="4" t="s">
         <v>1233</v>
@@ -23534,7 +23647,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B75" s="5" t="s">
         <v>1011</v>
       </c>
@@ -23543,7 +23656,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B76" s="5" t="s">
         <v>1012</v>
       </c>
@@ -23552,7 +23665,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B77" s="5" t="s">
         <v>1010</v>
       </c>
@@ -23561,7 +23674,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B78" s="5" t="s">
         <v>1231</v>
       </c>
@@ -23570,7 +23683,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
         <v>1234</v>
       </c>
@@ -23579,7 +23692,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
       <c r="B81" s="5" t="s">
         <v>1236</v>
@@ -23590,7 +23703,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
       <c r="B82" s="5" t="s">
         <v>843</v>
@@ -23601,7 +23714,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
       <c r="B83" s="5" t="s">
         <v>1235</v>
@@ -23630,20 +23743,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>1254</v>
       </c>
@@ -23651,7 +23764,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1268</v>
       </c>
@@ -23659,7 +23772,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1270</v>
       </c>
@@ -23667,7 +23780,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1272</v>
       </c>
@@ -23675,7 +23788,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1282</v>
       </c>
@@ -23683,7 +23796,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>332</v>
       </c>
@@ -23691,7 +23804,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1278</v>
       </c>
@@ -23699,7 +23812,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1283</v>
       </c>
@@ -23707,7 +23820,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1284</v>
       </c>
@@ -23715,7 +23828,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1286</v>
       </c>
@@ -23723,7 +23836,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1292</v>
       </c>
@@ -23731,7 +23844,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1287</v>
       </c>

--- a/DCAT-AP-NL-Profile.xlsx
+++ b/DCAT-AP-NL-Profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcobrattinga/GITREPO/DCAT-AP-NL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5687DFD5-0E00-7149-834A-50C9442B1019}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE51F06F-87F6-C747-AB1E-5DBD2DAF0BE5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="784" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="1617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="1635">
   <si>
     <t>Agent</t>
   </si>
@@ -6320,6 +6320,60 @@
   </si>
   <si>
     <t>De vraag is welke mist. GeoDCAT kent een mapping, mogelijk deze toevoegen als onderdeel van de waardelijst?</t>
+  </si>
+  <si>
+    <t>Besluit overleg H+M</t>
+  </si>
+  <si>
+    <t>Laten zoals het is. In GeoDCAT-AP-NL opnemen dat accessURL verplicht is, plus mapping. Beschrijving aanscherpen obv W3c DCAT 1.1</t>
+  </si>
+  <si>
+    <t>1 waardelijst met 7 waarden. Deze moet je gebruiken als je slechts een URI opgeeft. Je mag er ook een uitwisselgegeven van maken, maar dan moet dan wel voldoen aan het dct:LicenseDocument profielonderdeel</t>
+  </si>
+  <si>
+    <t>MDR waardelijst gebruiken (heeft 3 waarden). Bij GeoDCAT lijken het twee lijstjes: 1 met waarden "other", "no restrictions" en "unknown". Deze valt wel te mappen. De lijst met verwijzingen naar artikel 13 zou dan een aanvullend veld zijn. Marco doet voorstel uitwerking</t>
+  </si>
+  <si>
+    <t>Zie bij issue-12 voor het besluit</t>
+  </si>
+  <si>
+    <t>Waardelijst opnemen zoals GeoDCAT (IANA + GeoDCAT aanvullingen) plus een subset als Waardelijst waarbij je de meeste gebruikten opneemt (We hebben daar nu al een lijstje van). In de beschrijving van dit veld aangeven dat de waarde die je hier gebruikt overeen MOET komen met het mediatype dat je terugkrijgt bij de downloadURL</t>
+  </si>
+  <si>
+    <t>Gedaan</t>
+  </si>
+  <si>
+    <t>We voegen een veld toe waarmee we om kunnen gaan met benoemde tijdsintervallen (bv dc:title). Bij gebruik van een PeriodOfTime zonder begin of einde moet dit veld aanwezig zijn. Bij zoeken worden deze datasets altijd meegenomen, aangezien er dan geen waarde voor is. Probleem is dat schema.org geen uitspraak doet over het datatype. MAAR schema.org lijkt het wel mogelijk te houden om alleen een jaar op te geven, dat kan echter weer niet bij xsd:date. Dus het is OF gewoon een string, OF we beperken het gebruik van de schema.org eigenschappen. Voorlopig beperken tot xsd:date, dit voorleggen aan de groep</t>
+  </si>
+  <si>
+    <t>Met betrekking tot het model: zie issue 43. Geen aanvullend besluit nodig. Tekst wel herschrijven, dan is daarmee dit issue afgedekt.</t>
+  </si>
+  <si>
+    <t>Validatie op het model (actie Marco), en model aanvullen waar nodig conform DCAT-AP-EU</t>
+  </si>
+  <si>
+    <t>We kunnen niet werken met de waardelijst uit Europa, want daar staat niet alles in. Voorstel naar de werkgroep: (a) GeoDCAT-AP oplossing. Dus: het MOET een locatie zijn, dit is een uitwisselgegeven dat MAG een geometrie hebben (bounding box dan wel polygon), OF een link naar de organisatie waar dit het gebied van is</t>
+  </si>
+  <si>
+    <t>Zie besluit bij 7</t>
+  </si>
+  <si>
+    <t>Actie om lijst te maken van de verschillende agent roles en op basis daarvan een beslissing nemen. Belangrijk is dat de semantiek van de rol overeind blijft, met de voorkeur om standaard internationale vocabulaires te gebruiken.</t>
+  </si>
+  <si>
+    <t>Zie besluit bij 58</t>
+  </si>
+  <si>
+    <t>We maken een superwaardelijst die bestaat uit de waardelijsten die gebruikt mogen worden. De superwaardelijst is dan een asset met relaties naar de onderliggende assets. De waarden zitten in deze onderliggende assets. Het is een implementatie-invulling of de waarden uit de superwaardelijst ook opgehaald kunnen worden (dat mag een query zijn, of een gecachte dump, of...)</t>
+  </si>
+  <si>
+    <t>Twee taxonomieen, met mappingen uitwerken en maken. Deze relaties worden dan onderdeel van het profiel. Aandachtspunt is dat volgende week donderdag de redactie bij elkaar zit</t>
+  </si>
+  <si>
+    <t>Zie besluit bij 33</t>
+  </si>
+  <si>
+    <t>Aan CBS (Dennis) vragen welke ontbreken, en deze dan toevoegen aan de waardelijst die we bij DCAT-AP-NL hanteren</t>
   </si>
 </sst>
 </file>
@@ -7891,7 +7945,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8164,6 +8218,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1227">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -12112,10 +12167,10 @@
   <dimension ref="A1:O94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12525,7 +12580,7 @@
       <c r="E10" s="97" t="s">
         <v>1272</v>
       </c>
-      <c r="F10" s="97" t="s">
+      <c r="F10" s="138" t="s">
         <v>1361</v>
       </c>
       <c r="G10" s="96" t="s">
@@ -16579,10 +16634,10 @@
   <dimension ref="A1:I243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A128" sqref="A128"/>
+      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21779,13 +21834,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21799,10 +21854,11 @@
     <col min="8" max="8" width="61.1640625" style="5" customWidth="1"/>
     <col min="9" max="9" width="73.1640625" style="7" customWidth="1"/>
     <col min="10" max="10" width="62.83203125" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="7"/>
+    <col min="11" max="11" width="58" style="37" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>29</v>
       </c>
@@ -21833,8 +21889,11 @@
       <c r="J1" s="6" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="67" customFormat="1" ht="87" x14ac:dyDescent="0.3">
+      <c r="K1" s="4" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="67" customFormat="1" ht="87" x14ac:dyDescent="0.3">
       <c r="A2" s="51">
         <v>46</v>
       </c>
@@ -21860,8 +21919,9 @@
         <v>1116</v>
       </c>
       <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" s="67" customFormat="1" ht="53" x14ac:dyDescent="0.3">
+      <c r="K2" s="37"/>
+    </row>
+    <row r="3" spans="1:11" s="67" customFormat="1" ht="53" x14ac:dyDescent="0.3">
       <c r="A3" s="51">
         <v>47</v>
       </c>
@@ -21887,8 +21947,9 @@
         <v>1117</v>
       </c>
       <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" s="67" customFormat="1" ht="206" x14ac:dyDescent="0.3">
+      <c r="K3" s="37"/>
+    </row>
+    <row r="4" spans="1:11" s="67" customFormat="1" ht="206" x14ac:dyDescent="0.3">
       <c r="A4" s="51">
         <v>43</v>
       </c>
@@ -21914,8 +21975,11 @@
         <v>1599</v>
       </c>
       <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" s="67" customFormat="1" ht="53" x14ac:dyDescent="0.3">
+      <c r="K4" s="37" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="67" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A5" s="51">
         <v>12</v>
       </c>
@@ -21943,8 +22007,11 @@
       <c r="I5" s="5" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="67" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+      <c r="K5" s="37" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="67" customFormat="1" ht="87" x14ac:dyDescent="0.3">
       <c r="A6" s="51">
         <v>30</v>
       </c>
@@ -21970,8 +22037,11 @@
         <v>993</v>
       </c>
       <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" s="67" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+      <c r="K6" s="37" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="67" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A7" s="51">
         <v>31</v>
       </c>
@@ -21999,8 +22069,11 @@
       <c r="I7" s="7" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="67" customFormat="1" ht="121" x14ac:dyDescent="0.3">
+      <c r="K7" s="37" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="67" customFormat="1" ht="121" x14ac:dyDescent="0.3">
       <c r="A8" s="51">
         <v>32</v>
       </c>
@@ -22026,8 +22099,11 @@
         <v>993</v>
       </c>
       <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" s="67" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+      <c r="K8" s="37" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="67" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A9" s="51">
         <v>19</v>
       </c>
@@ -22055,8 +22131,11 @@
       <c r="I9" s="7" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="67" customFormat="1" ht="189" x14ac:dyDescent="0.3">
+      <c r="K9" s="37" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="67" customFormat="1" ht="189" x14ac:dyDescent="0.3">
       <c r="A10" s="51">
         <v>50</v>
       </c>
@@ -22080,8 +22159,11 @@
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" s="67" customFormat="1" ht="121" x14ac:dyDescent="0.3">
+      <c r="K10" s="37" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="67" customFormat="1" ht="121" x14ac:dyDescent="0.3">
       <c r="A11" s="55">
         <v>53</v>
       </c>
@@ -22109,8 +22191,11 @@
       <c r="I11" s="8" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="53" x14ac:dyDescent="0.3">
+      <c r="K11" s="37" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="53" x14ac:dyDescent="0.3">
       <c r="A12" s="51">
         <v>62</v>
       </c>
@@ -22129,8 +22214,11 @@
       <c r="H12" s="5" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="121" x14ac:dyDescent="0.3">
+      <c r="K12" s="37" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="121" x14ac:dyDescent="0.3">
       <c r="A13" s="51">
         <v>7</v>
       </c>
@@ -22161,8 +22249,11 @@
       <c r="J13" s="5" t="s">
         <v>1603</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="104" x14ac:dyDescent="0.3">
+      <c r="K13" s="37" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="104" x14ac:dyDescent="0.3">
       <c r="A14" s="51">
         <v>8</v>
       </c>
@@ -22193,8 +22284,11 @@
       <c r="J14" s="7" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="70" x14ac:dyDescent="0.3">
+      <c r="K14" s="37" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A15" s="51">
         <v>15</v>
       </c>
@@ -22225,8 +22319,11 @@
       <c r="J15" s="7" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" s="27" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+      <c r="K15" s="37" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="27" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A16" s="51">
         <v>41</v>
       </c>
@@ -22254,8 +22351,11 @@
       <c r="I16" s="7" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="67" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+      <c r="K16" s="69" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="67" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A17" s="51">
         <v>61</v>
       </c>
@@ -22283,8 +22383,11 @@
       <c r="I17" s="7" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="206" x14ac:dyDescent="0.3">
+      <c r="K17" s="37" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="206" x14ac:dyDescent="0.3">
       <c r="A18" s="51">
         <v>58</v>
       </c>
@@ -22312,8 +22415,11 @@
       <c r="I18" s="5" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="87" x14ac:dyDescent="0.3">
+      <c r="K18" s="37" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="104" x14ac:dyDescent="0.3">
       <c r="A19" s="51">
         <v>9</v>
       </c>
@@ -22344,8 +22450,11 @@
       <c r="J19" s="5" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="70" x14ac:dyDescent="0.3">
+      <c r="K19" s="37" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A20" s="51">
         <v>29</v>
       </c>
@@ -22373,8 +22482,11 @@
       <c r="I20" s="5" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="87" x14ac:dyDescent="0.3">
+      <c r="K20" s="37" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="87" x14ac:dyDescent="0.3">
       <c r="A21" s="51">
         <v>17</v>
       </c>
@@ -22405,8 +22517,11 @@
       <c r="J21" s="5" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="53" x14ac:dyDescent="0.3">
+      <c r="K21" s="37" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="53" x14ac:dyDescent="0.3">
       <c r="A22" s="51">
         <v>51</v>
       </c>
@@ -22434,8 +22549,11 @@
       <c r="I22" s="7" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="70" x14ac:dyDescent="0.3">
+      <c r="K22" s="37" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A23" s="51">
         <v>33</v>
       </c>
@@ -22463,8 +22581,11 @@
       <c r="I23" s="5" t="s">
         <v>1613</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="121" x14ac:dyDescent="0.3">
+      <c r="K23" s="37" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="121" x14ac:dyDescent="0.3">
       <c r="A24" s="51">
         <v>10</v>
       </c>
@@ -22495,8 +22616,11 @@
       <c r="J24" s="5" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" s="27" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+      <c r="K24" s="37" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="27" customFormat="1" ht="104" x14ac:dyDescent="0.3">
       <c r="A25" s="51">
         <v>11</v>
       </c>
@@ -22527,8 +22651,11 @@
       <c r="J25" s="27" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" s="27" customFormat="1" ht="53" x14ac:dyDescent="0.3">
+      <c r="K25" s="69" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="27" customFormat="1" ht="53" x14ac:dyDescent="0.3">
       <c r="A26" s="55">
         <v>54</v>
       </c>
@@ -22556,8 +22683,11 @@
       <c r="I26" s="8" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="53" x14ac:dyDescent="0.3">
+      <c r="K26" s="69" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="53" x14ac:dyDescent="0.3">
       <c r="A27" s="65">
         <v>5</v>
       </c>
@@ -22586,7 +22716,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="53" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="53" x14ac:dyDescent="0.3">
       <c r="A28" s="65">
         <v>27</v>
       </c>
@@ -22613,7 +22743,7 @@
       </c>
       <c r="I28" s="67"/>
     </row>
-    <row r="29" spans="1:10" ht="70" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A29" s="52">
         <v>28</v>
       </c>
@@ -22640,7 +22770,7 @@
       </c>
       <c r="I29" s="48"/>
     </row>
-    <row r="30" spans="1:10" ht="70" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A30" s="52">
         <v>34</v>
       </c>
@@ -22667,7 +22797,7 @@
       </c>
       <c r="I30" s="48"/>
     </row>
-    <row r="31" spans="1:10" ht="53" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="53" x14ac:dyDescent="0.3">
       <c r="A31" s="52">
         <v>35</v>
       </c>
@@ -22690,7 +22820,7 @@
       <c r="H31" s="47"/>
       <c r="I31" s="48"/>
     </row>
-    <row r="32" spans="1:10" ht="121" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="121" x14ac:dyDescent="0.3">
       <c r="A32" s="52">
         <v>36</v>
       </c>
@@ -22717,7 +22847,7 @@
       </c>
       <c r="I32" s="48"/>
     </row>
-    <row r="33" spans="1:9" ht="53" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="53" x14ac:dyDescent="0.3">
       <c r="A33" s="52">
         <v>37</v>
       </c>
@@ -22742,7 +22872,7 @@
       <c r="H33" s="47"/>
       <c r="I33" s="48"/>
     </row>
-    <row r="34" spans="1:9" s="27" customFormat="1" ht="70" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="27" customFormat="1" ht="70" x14ac:dyDescent="0.3">
       <c r="A34" s="52">
         <v>38</v>
       </c>
@@ -22768,8 +22898,9 @@
         <v>996</v>
       </c>
       <c r="I34" s="48"/>
-    </row>
-    <row r="35" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+      <c r="K34" s="69"/>
+    </row>
+    <row r="35" spans="1:11" ht="138" x14ac:dyDescent="0.3">
       <c r="A35" s="52">
         <v>39</v>
       </c>
@@ -22796,7 +22927,7 @@
       </c>
       <c r="I35" s="48"/>
     </row>
-    <row r="36" spans="1:9" ht="70" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A36" s="52">
         <v>40</v>
       </c>
@@ -22823,7 +22954,7 @@
       </c>
       <c r="I36" s="48"/>
     </row>
-    <row r="37" spans="1:9" ht="70" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A37" s="52">
         <v>44</v>
       </c>
@@ -22850,7 +22981,7 @@
       </c>
       <c r="I37" s="48"/>
     </row>
-    <row r="38" spans="1:9" ht="70" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A38" s="52">
         <v>52</v>
       </c>
@@ -22877,7 +23008,7 @@
       </c>
       <c r="I38" s="48"/>
     </row>
-    <row r="39" spans="1:9" ht="70" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A39" s="52">
         <v>55</v>
       </c>
@@ -22902,7 +23033,7 @@
       <c r="H39" s="47"/>
       <c r="I39" s="48"/>
     </row>
-    <row r="40" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A40" s="65">
         <v>57</v>
       </c>
@@ -22929,7 +23060,7 @@
       </c>
       <c r="I40" s="67"/>
     </row>
-    <row r="41" spans="1:9" ht="104" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="104" x14ac:dyDescent="0.3">
       <c r="A41" s="65">
         <v>1</v>
       </c>
@@ -22958,7 +23089,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="53" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="53" x14ac:dyDescent="0.3">
       <c r="A42" s="52">
         <v>2</v>
       </c>
@@ -22981,7 +23112,7 @@
       </c>
       <c r="I42" s="48"/>
     </row>
-    <row r="43" spans="1:9" ht="104" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="104" x14ac:dyDescent="0.3">
       <c r="A43" s="52">
         <v>3</v>
       </c>
@@ -23010,7 +23141,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="104" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="104" x14ac:dyDescent="0.3">
       <c r="A44" s="65">
         <v>4</v>
       </c>
@@ -23039,7 +23170,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="36" x14ac:dyDescent="0.3">
       <c r="A45" s="52">
         <v>6</v>
       </c>
@@ -23068,7 +23199,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="70" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A46" s="78">
         <v>56</v>
       </c>
@@ -23095,7 +23226,7 @@
       </c>
       <c r="I46" s="77"/>
     </row>
-    <row r="47" spans="1:9" ht="104" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="104" x14ac:dyDescent="0.3">
       <c r="A47" s="65">
         <v>13</v>
       </c>
@@ -23124,7 +23255,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="138" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="138" x14ac:dyDescent="0.3">
       <c r="A48" s="52">
         <v>20</v>
       </c>
